--- a/Documentación/Entregable - historias de Usuario.xlsx
+++ b/Documentación/Entregable - historias de Usuario.xlsx
@@ -1099,6 +1099,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1117,95 +1183,11 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1216,14 +1198,32 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1508,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,279 +1529,279 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="43" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="M2" s="6"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="36"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="19" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="20" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20" t="s">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="19" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="20" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20" t="s">
+      <c r="K7" s="33"/>
+      <c r="L7" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="M7" s="20"/>
+      <c r="M7" s="33"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="19" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="20" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20" t="s">
+      <c r="K8" s="33"/>
+      <c r="L8" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="M8" s="20"/>
+      <c r="M8" s="33"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="19" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="20" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20" t="s">
+      <c r="K9" s="33"/>
+      <c r="L9" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="M9" s="20"/>
+      <c r="M9" s="33"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12" t="s">
+      <c r="K10" s="20"/>
+      <c r="L10" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="M10" s="18"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="13" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="38" t="s">
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="36" t="s">
+      <c r="L14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="36" t="s">
+      <c r="M14" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="39">
         <v>1</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="37">
         <v>5</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="4">
         <v>1</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="5" t="s">
         <v>68</v>
       </c>
       <c r="N15" s="1"/>
@@ -1811,27 +1811,27 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="21">
+      <c r="A16" s="39"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="4">
         <v>2</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N16" s="1"/>
@@ -1841,43 +1841,43 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="A17" s="39">
         <v>2</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="37">
         <v>5</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="4">
         <v>1</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="K17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L17" s="22" t="s">
+      <c r="L17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M17" s="22" t="s">
+      <c r="M17" s="5" t="s">
         <v>68</v>
       </c>
       <c r="N17" s="1"/>
@@ -1887,27 +1887,27 @@
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="21">
+      <c r="A18" s="39"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="4">
         <v>2</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L18" s="22" t="s">
+      <c r="L18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M18" s="22" t="s">
+      <c r="M18" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N18" s="1"/>
@@ -1917,43 +1917,43 @@
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="39">
         <v>3</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="37">
         <v>5</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="4">
         <v>1</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="22" t="s">
+      <c r="K19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L19" s="22" t="s">
+      <c r="L19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M19" s="22" t="s">
+      <c r="M19" s="5" t="s">
         <v>68</v>
       </c>
       <c r="N19" s="1"/>
@@ -1963,27 +1963,27 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="21">
+      <c r="A20" s="39"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="4">
         <v>2</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L20" s="22" t="s">
+      <c r="L20" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M20" s="22" t="s">
+      <c r="M20" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N20" s="1"/>
@@ -1993,43 +1993,43 @@
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="A21" s="39">
         <v>4</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="37">
         <v>5</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="4">
         <v>1</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="L21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="M21" s="5" t="s">
         <v>85</v>
       </c>
       <c r="N21" s="1"/>
@@ -2039,27 +2039,27 @@
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="21">
+      <c r="A22" s="39"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="4">
         <v>2</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L22" s="22" t="s">
+      <c r="L22" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M22" s="22" t="s">
+      <c r="M22" s="5" t="s">
         <v>86</v>
       </c>
       <c r="N22" s="1"/>
@@ -2069,27 +2069,27 @@
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="21">
+      <c r="A23" s="39"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="4">
         <v>3</v>
       </c>
-      <c r="J23" s="22" t="s">
+      <c r="J23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L23" s="22" t="s">
+      <c r="L23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="M23" s="22" t="s">
+      <c r="M23" s="5" t="s">
         <v>87</v>
       </c>
       <c r="N23" s="1"/>
@@ -2099,27 +2099,27 @@
       <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:18" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="21">
+      <c r="A24" s="39"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="4">
         <v>4</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="22" t="s">
+      <c r="K24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="L24" s="22" t="s">
+      <c r="L24" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="M24" s="22" t="s">
+      <c r="M24" s="5" t="s">
         <v>88</v>
       </c>
       <c r="N24" s="1"/>
@@ -2129,27 +2129,27 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="21">
+      <c r="A25" s="39"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="4">
         <v>5</v>
       </c>
-      <c r="J25" s="22" t="s">
+      <c r="J25" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="K25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L25" s="22" t="s">
+      <c r="L25" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="M25" s="22" t="s">
+      <c r="M25" s="5" t="s">
         <v>89</v>
       </c>
       <c r="N25" s="1"/>
@@ -2159,27 +2159,27 @@
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="21">
+      <c r="A26" s="39"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="4">
         <v>6</v>
       </c>
-      <c r="J26" s="22" t="s">
+      <c r="J26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K26" s="22" t="s">
+      <c r="K26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L26" s="22" t="s">
+      <c r="L26" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="M26" s="22" t="s">
+      <c r="M26" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N26" s="1"/>
@@ -2189,43 +2189,43 @@
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
+      <c r="A27" s="39">
         <v>5</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="37">
         <v>5</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="4">
         <v>1</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L27" s="22" t="s">
+      <c r="L27" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M27" s="22" t="s">
+      <c r="M27" s="5" t="s">
         <v>176</v>
       </c>
       <c r="N27" s="1"/>
@@ -2235,27 +2235,27 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="21">
+      <c r="A28" s="39"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="4">
         <v>2</v>
       </c>
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K28" s="22" t="s">
+      <c r="K28" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="L28" s="22" t="s">
+      <c r="L28" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M28" s="22" t="s">
+      <c r="M28" s="5" t="s">
         <v>94</v>
       </c>
       <c r="N28" s="1"/>
@@ -2265,43 +2265,43 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
+      <c r="A29" s="39">
         <v>6</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="37">
         <v>5</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="4">
         <v>1</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="K29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L29" s="22" t="s">
+      <c r="L29" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M29" s="22" t="s">
+      <c r="M29" s="5" t="s">
         <v>101</v>
       </c>
       <c r="N29" s="1"/>
@@ -2311,27 +2311,27 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="21">
+      <c r="A30" s="39"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="4">
         <v>2</v>
       </c>
-      <c r="J30" s="22" t="s">
+      <c r="J30" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K30" s="22" t="s">
+      <c r="K30" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="L30" s="22" t="s">
+      <c r="L30" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M30" s="22" t="s">
+      <c r="M30" s="5" t="s">
         <v>102</v>
       </c>
       <c r="N30" s="1"/>
@@ -2341,27 +2341,27 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="21">
+      <c r="A31" s="39"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="4">
         <v>3</v>
       </c>
-      <c r="J31" s="22" t="s">
+      <c r="J31" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="K31" s="22" t="s">
+      <c r="K31" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L31" s="22" t="s">
+      <c r="L31" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="M31" s="22" t="s">
+      <c r="M31" s="5" t="s">
         <v>103</v>
       </c>
       <c r="N31" s="1"/>
@@ -2371,27 +2371,27 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="21">
+      <c r="A32" s="39"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="4">
         <v>4</v>
       </c>
-      <c r="J32" s="22" t="s">
+      <c r="J32" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="K32" s="22" t="s">
+      <c r="K32" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="L32" s="22" t="s">
+      <c r="L32" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="M32" s="22" t="s">
+      <c r="M32" s="5" t="s">
         <v>104</v>
       </c>
       <c r="N32" s="1"/>
@@ -2401,27 +2401,27 @@
       <c r="R32" s="1"/>
     </row>
     <row r="33" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="21">
+      <c r="A33" s="39"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="4">
         <v>5</v>
       </c>
-      <c r="J33" s="22" t="s">
+      <c r="J33" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K33" s="22" t="s">
+      <c r="K33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L33" s="22" t="s">
+      <c r="L33" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="M33" s="22" t="s">
+      <c r="M33" s="5" t="s">
         <v>105</v>
       </c>
       <c r="N33" s="1"/>
@@ -2431,27 +2431,27 @@
       <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="21">
+      <c r="A34" s="39"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="4">
         <v>6</v>
       </c>
-      <c r="J34" s="22" t="s">
+      <c r="J34" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K34" s="22" t="s">
+      <c r="K34" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L34" s="22" t="s">
+      <c r="L34" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="M34" s="22" t="s">
+      <c r="M34" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N34" s="1"/>
@@ -2461,43 +2461,43 @@
       <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23">
+      <c r="A35" s="39">
         <v>7</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="37">
         <v>5</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="4">
         <v>1</v>
       </c>
-      <c r="J35" s="22" t="s">
+      <c r="J35" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K35" s="22" t="s">
+      <c r="K35" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L35" s="22" t="s">
+      <c r="L35" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="M35" s="22" t="s">
+      <c r="M35" s="5" t="s">
         <v>108</v>
       </c>
       <c r="N35" s="1"/>
@@ -2507,27 +2507,27 @@
       <c r="R35" s="1"/>
     </row>
     <row r="36" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="21">
+      <c r="A36" s="39"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="4">
         <v>2</v>
       </c>
-      <c r="J36" s="22" t="s">
+      <c r="J36" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="K36" s="22" t="s">
+      <c r="K36" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L36" s="22" t="s">
+      <c r="L36" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="M36" s="22" t="s">
+      <c r="M36" s="5" t="s">
         <v>109</v>
       </c>
       <c r="N36" s="1"/>
@@ -2537,43 +2537,43 @@
       <c r="R36" s="1"/>
     </row>
     <row r="37" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23">
+      <c r="A37" s="39">
         <v>8</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="37">
         <v>5</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="4">
         <v>1</v>
       </c>
-      <c r="J37" s="22" t="s">
+      <c r="J37" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K37" s="22" t="s">
+      <c r="K37" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L37" s="22" t="s">
+      <c r="L37" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="M37" s="22" t="s">
+      <c r="M37" s="5" t="s">
         <v>111</v>
       </c>
       <c r="N37" s="1"/>
@@ -2583,27 +2583,27 @@
       <c r="R37" s="1"/>
     </row>
     <row r="38" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="21">
+      <c r="A38" s="39"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="4">
         <v>2</v>
       </c>
-      <c r="J38" s="22" t="s">
+      <c r="J38" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="K38" s="22" t="s">
+      <c r="K38" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L38" s="22" t="s">
+      <c r="L38" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="M38" s="22" t="s">
+      <c r="M38" s="5" t="s">
         <v>177</v>
       </c>
       <c r="N38" s="1"/>
@@ -2613,43 +2613,43 @@
       <c r="R38" s="1"/>
     </row>
     <row r="39" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
+      <c r="A39" s="39">
         <v>9</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H39" s="37">
         <v>3</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="4">
         <v>1</v>
       </c>
-      <c r="J39" s="22" t="s">
+      <c r="J39" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="K39" s="22" t="s">
+      <c r="K39" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L39" s="22" t="s">
+      <c r="L39" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M39" s="22" t="s">
+      <c r="M39" s="5" t="s">
         <v>116</v>
       </c>
       <c r="N39" s="1"/>
@@ -2659,27 +2659,27 @@
       <c r="R39" s="1"/>
     </row>
     <row r="40" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="21">
+      <c r="A40" s="39"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="4">
         <v>2</v>
       </c>
-      <c r="J40" s="22" t="s">
+      <c r="J40" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="K40" s="22" t="s">
+      <c r="K40" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L40" s="22" t="s">
+      <c r="L40" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M40" s="22" t="s">
+      <c r="M40" s="5" t="s">
         <v>118</v>
       </c>
       <c r="N40" s="1"/>
@@ -2689,43 +2689,43 @@
       <c r="R40" s="1"/>
     </row>
     <row r="41" spans="1:18" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="23">
+      <c r="A41" s="39">
         <v>10</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H41" s="37">
         <v>5</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="4">
         <v>1</v>
       </c>
-      <c r="J41" s="22" t="s">
+      <c r="J41" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K41" s="22" t="s">
+      <c r="K41" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L41" s="22" t="s">
+      <c r="L41" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="M41" s="22" t="s">
+      <c r="M41" s="5" t="s">
         <v>120</v>
       </c>
       <c r="N41" s="1"/>
@@ -2735,27 +2735,27 @@
       <c r="R41" s="1"/>
     </row>
     <row r="42" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="21">
+      <c r="A42" s="39"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="4">
         <v>2</v>
       </c>
-      <c r="J42" s="22" t="s">
+      <c r="J42" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K42" s="22" t="s">
+      <c r="K42" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="L42" s="22" t="s">
+      <c r="L42" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="M42" s="22" t="s">
+      <c r="M42" s="5" t="s">
         <v>121</v>
       </c>
       <c r="N42" s="1"/>
@@ -2765,43 +2765,43 @@
       <c r="R42" s="1"/>
     </row>
     <row r="43" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23">
+      <c r="A43" s="39">
         <v>11</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="G43" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H43" s="37">
         <v>5</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="4">
         <v>1</v>
       </c>
-      <c r="J43" s="22" t="s">
+      <c r="J43" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="K43" s="22" t="s">
+      <c r="K43" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L43" s="22" t="s">
+      <c r="L43" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="M43" s="22" t="s">
+      <c r="M43" s="5" t="s">
         <v>126</v>
       </c>
       <c r="N43" s="1"/>
@@ -2811,27 +2811,27 @@
       <c r="R43" s="1"/>
     </row>
     <row r="44" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="21">
+      <c r="A44" s="39"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="4">
         <v>2</v>
       </c>
-      <c r="J44" s="22" t="s">
+      <c r="J44" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="K44" s="22" t="s">
+      <c r="K44" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="L44" s="22" t="s">
+      <c r="L44" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="M44" s="22" t="s">
+      <c r="M44" s="5" t="s">
         <v>125</v>
       </c>
       <c r="N44" s="1"/>
@@ -2841,43 +2841,43 @@
       <c r="R44" s="1"/>
     </row>
     <row r="45" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23">
+      <c r="A45" s="39">
         <v>12</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="G45" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H45" s="25">
+      <c r="H45" s="37">
         <v>3</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="4">
         <v>1</v>
       </c>
-      <c r="J45" s="22" t="s">
+      <c r="J45" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="K45" s="22" t="s">
+      <c r="K45" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L45" s="22" t="s">
+      <c r="L45" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="M45" s="22" t="s">
+      <c r="M45" s="5" t="s">
         <v>130</v>
       </c>
       <c r="N45" s="1"/>
@@ -2887,27 +2887,27 @@
       <c r="R45" s="1"/>
     </row>
     <row r="46" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="21">
+      <c r="A46" s="39"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="4">
         <v>2</v>
       </c>
-      <c r="J46" s="22" t="s">
+      <c r="J46" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K46" s="22" t="s">
+      <c r="K46" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L46" s="22" t="s">
+      <c r="L46" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="M46" s="22" t="s">
+      <c r="M46" s="5" t="s">
         <v>131</v>
       </c>
       <c r="N46" s="1"/>
@@ -2917,43 +2917,43 @@
       <c r="R46" s="1"/>
     </row>
     <row r="47" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="23">
+      <c r="A47" s="39">
         <v>13</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H47" s="25">
+      <c r="H47" s="37">
         <v>3</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47" s="4">
         <v>1</v>
       </c>
-      <c r="J47" s="22" t="s">
+      <c r="J47" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="K47" s="22" t="s">
+      <c r="K47" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L47" s="22" t="s">
+      <c r="L47" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="M47" s="22" t="s">
+      <c r="M47" s="5" t="s">
         <v>130</v>
       </c>
       <c r="N47" s="1"/>
@@ -2963,27 +2963,27 @@
       <c r="R47" s="1"/>
     </row>
     <row r="48" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="21">
+      <c r="A48" s="39"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="4">
         <v>2</v>
       </c>
-      <c r="J48" s="22" t="s">
+      <c r="J48" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K48" s="22" t="s">
+      <c r="K48" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L48" s="22" t="s">
+      <c r="L48" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="M48" s="22" t="s">
+      <c r="M48" s="5" t="s">
         <v>131</v>
       </c>
       <c r="N48" s="1"/>
@@ -2993,43 +2993,43 @@
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="23">
+      <c r="A49" s="39">
         <v>14</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="25" t="s">
+      <c r="E49" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="G49" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H49" s="25">
+      <c r="H49" s="37">
         <v>3</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I49" s="4">
         <v>1</v>
       </c>
-      <c r="J49" s="22" t="s">
+      <c r="J49" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="K49" s="22" t="s">
+      <c r="K49" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L49" s="22" t="s">
+      <c r="L49" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="M49" s="22" t="s">
+      <c r="M49" s="5" t="s">
         <v>137</v>
       </c>
       <c r="N49" s="1"/>
@@ -3039,27 +3039,27 @@
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="21">
+      <c r="A50" s="39"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="4">
         <v>2</v>
       </c>
-      <c r="J50" s="22" t="s">
+      <c r="J50" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="K50" s="22" t="s">
+      <c r="K50" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L50" s="22" t="s">
+      <c r="L50" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="M50" s="22" t="s">
+      <c r="M50" s="5" t="s">
         <v>138</v>
       </c>
       <c r="N50" s="1"/>
@@ -3069,43 +3069,43 @@
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23">
+      <c r="A51" s="39">
         <v>15</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E51" s="25" t="s">
+      <c r="E51" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="F51" s="25" t="s">
+      <c r="F51" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="25" t="s">
+      <c r="G51" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H51" s="25">
+      <c r="H51" s="37">
         <v>3</v>
       </c>
-      <c r="I51" s="21">
+      <c r="I51" s="4">
         <v>1</v>
       </c>
-      <c r="J51" s="22" t="s">
+      <c r="J51" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="K51" s="22" t="s">
+      <c r="K51" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L51" s="22" t="s">
+      <c r="L51" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="M51" s="22" t="s">
+      <c r="M51" s="5" t="s">
         <v>130</v>
       </c>
       <c r="N51" s="1"/>
@@ -3115,27 +3115,27 @@
       <c r="R51" s="1"/>
     </row>
     <row r="52" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="21">
+      <c r="A52" s="39"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="4">
         <v>2</v>
       </c>
-      <c r="J52" s="22" t="s">
+      <c r="J52" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K52" s="22" t="s">
+      <c r="K52" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L52" s="22" t="s">
+      <c r="L52" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="M52" s="22" t="s">
+      <c r="M52" s="5" t="s">
         <v>131</v>
       </c>
       <c r="N52" s="1"/>
@@ -3145,43 +3145,43 @@
       <c r="R52" s="1"/>
     </row>
     <row r="53" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A53" s="21">
+      <c r="A53" s="4">
         <v>16</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E53" s="29" t="s">
+      <c r="E53" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="F53" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="29" t="s">
+      <c r="G53" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H53" s="29">
+      <c r="H53" s="7">
         <v>5</v>
       </c>
-      <c r="I53" s="21">
+      <c r="I53" s="4">
         <v>1</v>
       </c>
-      <c r="J53" s="22" t="s">
+      <c r="J53" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K53" s="22" t="s">
+      <c r="K53" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L53" s="22" t="s">
+      <c r="L53" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="M53" s="22" t="s">
+      <c r="M53" s="5" t="s">
         <v>148</v>
       </c>
       <c r="N53" s="1"/>
@@ -3191,43 +3191,43 @@
       <c r="R53" s="1"/>
     </row>
     <row r="54" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23">
+      <c r="A54" s="39">
         <v>17</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="D54" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F54" s="30" t="s">
+      <c r="F54" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G54" s="30" t="s">
+      <c r="G54" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="H54" s="30">
+      <c r="H54" s="38">
         <v>3</v>
       </c>
-      <c r="I54" s="21">
+      <c r="I54" s="4">
         <v>1</v>
       </c>
-      <c r="J54" s="22" t="s">
+      <c r="J54" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K54" s="22" t="s">
+      <c r="K54" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L54" s="22" t="s">
+      <c r="L54" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="M54" s="22" t="s">
+      <c r="M54" s="5" t="s">
         <v>166</v>
       </c>
       <c r="N54" s="1"/>
@@ -3237,27 +3237,27 @@
       <c r="R54" s="1"/>
     </row>
     <row r="55" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="21">
+      <c r="A55" s="39"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="4">
         <v>2</v>
       </c>
-      <c r="J55" s="22" t="s">
+      <c r="J55" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K55" s="22" t="s">
+      <c r="K55" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="L55" s="22" t="s">
+      <c r="L55" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="M55" s="22" t="s">
+      <c r="M55" s="5" t="s">
         <v>167</v>
       </c>
       <c r="N55" s="1"/>
@@ -3267,27 +3267,27 @@
       <c r="R55" s="1"/>
     </row>
     <row r="56" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="21">
+      <c r="A56" s="39"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="4">
         <v>3</v>
       </c>
-      <c r="J56" s="22" t="s">
+      <c r="J56" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="K56" s="22" t="s">
+      <c r="K56" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L56" s="22" t="s">
+      <c r="L56" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="M56" s="22" t="s">
+      <c r="M56" s="5" t="s">
         <v>168</v>
       </c>
       <c r="N56" s="1"/>
@@ -3297,27 +3297,27 @@
       <c r="R56" s="1"/>
     </row>
     <row r="57" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="21">
+      <c r="A57" s="39"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="4">
         <v>4</v>
       </c>
-      <c r="J57" s="22" t="s">
+      <c r="J57" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="K57" s="22" t="s">
+      <c r="K57" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="L57" s="22" t="s">
+      <c r="L57" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="M57" s="22" t="s">
+      <c r="M57" s="5" t="s">
         <v>169</v>
       </c>
       <c r="N57" s="1"/>
@@ -3327,27 +3327,27 @@
       <c r="R57" s="1"/>
     </row>
     <row r="58" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="21">
+      <c r="A58" s="39"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="4">
         <v>5</v>
       </c>
-      <c r="J58" s="22" t="s">
+      <c r="J58" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K58" s="22" t="s">
+      <c r="K58" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L58" s="22" t="s">
+      <c r="L58" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="M58" s="22" t="s">
+      <c r="M58" s="5" t="s">
         <v>170</v>
       </c>
       <c r="N58" s="1"/>
@@ -3357,27 +3357,27 @@
       <c r="R58" s="1"/>
     </row>
     <row r="59" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="21">
+      <c r="A59" s="39"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="4">
         <v>6</v>
       </c>
-      <c r="J59" s="22" t="s">
+      <c r="J59" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K59" s="22" t="s">
+      <c r="K59" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L59" s="22" t="s">
+      <c r="L59" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="M59" s="22" t="s">
+      <c r="M59" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N59" s="1"/>
@@ -3387,43 +3387,43 @@
       <c r="R59" s="1"/>
     </row>
     <row r="60" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23">
+      <c r="A60" s="39">
         <v>18</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="30" t="s">
+      <c r="E60" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="F60" s="30" t="s">
+      <c r="F60" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G60" s="25" t="s">
+      <c r="G60" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H60" s="30">
+      <c r="H60" s="38">
         <v>1</v>
       </c>
-      <c r="I60" s="32">
+      <c r="I60" s="8">
         <v>1</v>
       </c>
-      <c r="J60" s="22" t="s">
+      <c r="J60" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K60" s="33" t="s">
+      <c r="K60" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L60" s="22" t="s">
+      <c r="L60" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="M60" s="22" t="s">
+      <c r="M60" s="5" t="s">
         <v>179</v>
       </c>
       <c r="N60" s="1"/>
@@ -3433,27 +3433,27 @@
       <c r="R60" s="1"/>
     </row>
     <row r="61" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="32">
+      <c r="A61" s="39"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="8">
         <v>2</v>
       </c>
-      <c r="J61" s="22" t="s">
+      <c r="J61" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="K61" s="33" t="s">
+      <c r="K61" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L61" s="22" t="s">
+      <c r="L61" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="M61" s="34" t="s">
+      <c r="M61" s="10" t="s">
         <v>157</v>
       </c>
       <c r="N61" s="1"/>
@@ -3463,27 +3463,27 @@
       <c r="R61" s="1"/>
     </row>
     <row r="62" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="32">
+      <c r="A62" s="39"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="8">
         <v>3</v>
       </c>
-      <c r="J62" s="22" t="s">
+      <c r="J62" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K62" s="33" t="s">
+      <c r="K62" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L62" s="22" t="s">
+      <c r="L62" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="M62" s="34" t="s">
+      <c r="M62" s="10" t="s">
         <v>160</v>
       </c>
       <c r="N62" s="1"/>
@@ -3493,43 +3493,43 @@
       <c r="R62" s="1"/>
     </row>
     <row r="63" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23">
+      <c r="A63" s="39">
         <v>19</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E63" s="30" t="s">
+      <c r="E63" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="F63" s="30" t="s">
+      <c r="F63" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G63" s="25" t="s">
+      <c r="G63" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H63" s="30">
+      <c r="H63" s="38">
         <v>1</v>
       </c>
-      <c r="I63" s="32">
+      <c r="I63" s="8">
         <v>1</v>
       </c>
-      <c r="J63" s="22" t="s">
+      <c r="J63" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K63" s="33" t="s">
+      <c r="K63" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L63" s="22" t="s">
+      <c r="L63" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="M63" s="22" t="s">
+      <c r="M63" s="5" t="s">
         <v>179</v>
       </c>
       <c r="N63" s="1"/>
@@ -3539,27 +3539,27 @@
       <c r="R63" s="1"/>
     </row>
     <row r="64" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="32">
+      <c r="A64" s="39"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="8">
         <v>2</v>
       </c>
-      <c r="J64" s="22" t="s">
+      <c r="J64" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="K64" s="33" t="s">
+      <c r="K64" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L64" s="22" t="s">
+      <c r="L64" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="M64" s="34" t="s">
+      <c r="M64" s="10" t="s">
         <v>157</v>
       </c>
       <c r="N64" s="1"/>
@@ -3569,27 +3569,27 @@
       <c r="R64" s="1"/>
     </row>
     <row r="65" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="32">
+      <c r="A65" s="39"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="8">
         <v>3</v>
       </c>
-      <c r="J65" s="22" t="s">
+      <c r="J65" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K65" s="33" t="s">
+      <c r="K65" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L65" s="22" t="s">
+      <c r="L65" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="M65" s="34" t="s">
+      <c r="M65" s="10" t="s">
         <v>162</v>
       </c>
       <c r="N65" s="1"/>
@@ -3599,43 +3599,43 @@
       <c r="R65" s="1"/>
     </row>
     <row r="66" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="23">
+      <c r="A66" s="39">
         <v>20</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E66" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F66" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G66" s="30" t="s">
+      <c r="G66" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="H66" s="30">
+      <c r="H66" s="38">
         <v>3</v>
       </c>
-      <c r="I66" s="21">
+      <c r="I66" s="4">
         <v>1</v>
       </c>
-      <c r="J66" s="22" t="s">
+      <c r="J66" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K66" s="22" t="s">
+      <c r="K66" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L66" s="22" t="s">
+      <c r="L66" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="M66" s="22" t="s">
+      <c r="M66" s="5" t="s">
         <v>130</v>
       </c>
       <c r="N66" s="1"/>
@@ -3645,27 +3645,27 @@
       <c r="R66" s="1"/>
     </row>
     <row r="67" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="21">
+      <c r="A67" s="39"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="4">
         <v>2</v>
       </c>
-      <c r="J67" s="22" t="s">
+      <c r="J67" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K67" s="22" t="s">
+      <c r="K67" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L67" s="22" t="s">
+      <c r="L67" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="M67" s="22" t="s">
+      <c r="M67" s="5" t="s">
         <v>131</v>
       </c>
       <c r="N67" s="1"/>
@@ -3675,43 +3675,43 @@
       <c r="R67" s="1"/>
     </row>
     <row r="68" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="23">
+      <c r="A68" s="39">
         <v>21</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D68" s="25" t="s">
+      <c r="D68" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E68" s="30" t="s">
+      <c r="E68" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="F68" s="30" t="s">
+      <c r="F68" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="G68" s="30" t="s">
+      <c r="G68" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="H68" s="30">
+      <c r="H68" s="38">
         <v>5</v>
       </c>
-      <c r="I68" s="21">
+      <c r="I68" s="4">
         <v>1</v>
       </c>
-      <c r="J68" s="22" t="s">
+      <c r="J68" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K68" s="22" t="s">
+      <c r="K68" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L68" s="22" t="s">
+      <c r="L68" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="M68" s="22" t="s">
+      <c r="M68" s="5" t="s">
         <v>145</v>
       </c>
       <c r="N68" s="1"/>
@@ -3721,27 +3721,27 @@
       <c r="R68" s="1"/>
     </row>
     <row r="69" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="21">
+      <c r="A69" s="39"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="4">
         <v>2</v>
       </c>
-      <c r="J69" s="22" t="s">
+      <c r="J69" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K69" s="22" t="s">
+      <c r="K69" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="L69" s="22" t="s">
+      <c r="L69" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="M69" s="22" t="s">
+      <c r="M69" s="5" t="s">
         <v>144</v>
       </c>
       <c r="N69" s="1"/>
@@ -3751,43 +3751,43 @@
       <c r="R69" s="1"/>
     </row>
     <row r="70" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A70" s="21">
+      <c r="A70" s="4">
         <v>22</v>
       </c>
-      <c r="B70" s="28" t="s">
+      <c r="B70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D70" s="28" t="s">
+      <c r="D70" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="35" t="s">
+      <c r="E70" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F70" s="35" t="s">
+      <c r="F70" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G70" s="35" t="s">
+      <c r="G70" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H70" s="35">
+      <c r="H70" s="11">
         <v>5</v>
       </c>
-      <c r="I70" s="21">
+      <c r="I70" s="4">
         <v>1</v>
       </c>
-      <c r="J70" s="22" t="s">
+      <c r="J70" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K70" s="22" t="s">
+      <c r="K70" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L70" s="22" t="s">
+      <c r="L70" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="M70" s="22" t="s">
+      <c r="M70" s="5" t="s">
         <v>150</v>
       </c>
       <c r="N70" s="1"/>
@@ -3797,21 +3797,21 @@
       <c r="R70" s="1"/>
     </row>
     <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="37" t="s">
+      <c r="A71" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="32"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -3819,43 +3819,43 @@
       <c r="R71" s="1"/>
     </row>
     <row r="72" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A72" s="21">
+      <c r="A72" s="4">
         <v>23</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B72" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="C72" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D72" s="28" t="s">
+      <c r="D72" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E72" s="35" t="s">
+      <c r="E72" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F72" s="35" t="s">
+      <c r="F72" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G72" s="35" t="s">
+      <c r="G72" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H72" s="35">
+      <c r="H72" s="11">
         <v>1</v>
       </c>
-      <c r="I72" s="32">
+      <c r="I72" s="8">
         <v>1</v>
       </c>
-      <c r="J72" s="22" t="s">
+      <c r="J72" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="K72" s="33" t="s">
+      <c r="K72" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L72" s="22" t="s">
+      <c r="L72" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="M72" s="22" t="s">
+      <c r="M72" s="5" t="s">
         <v>183</v>
       </c>
       <c r="N72" s="1"/>
@@ -3865,43 +3865,43 @@
       <c r="R72" s="1"/>
     </row>
     <row r="73" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A73" s="21">
+      <c r="A73" s="4">
         <v>24</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C73" s="28" t="s">
+      <c r="C73" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D73" s="28" t="s">
+      <c r="D73" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E73" s="35" t="s">
+      <c r="E73" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F73" s="35" t="s">
+      <c r="F73" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G73" s="35" t="s">
+      <c r="G73" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H73" s="35">
+      <c r="H73" s="11">
         <v>1</v>
       </c>
-      <c r="I73" s="32">
+      <c r="I73" s="8">
         <v>1</v>
       </c>
-      <c r="J73" s="22" t="s">
+      <c r="J73" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="K73" s="33" t="s">
+      <c r="K73" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L73" s="22" t="s">
+      <c r="L73" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="M73" s="22" t="s">
+      <c r="M73" s="5" t="s">
         <v>183</v>
       </c>
       <c r="N73" s="1"/>
@@ -3911,43 +3911,43 @@
       <c r="R73" s="1"/>
     </row>
     <row r="74" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A74" s="21">
+      <c r="A74" s="4">
         <v>25</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="28" t="s">
+      <c r="C74" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D74" s="28" t="s">
+      <c r="D74" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E74" s="35" t="s">
+      <c r="E74" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F74" s="35" t="s">
+      <c r="F74" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G74" s="35" t="s">
+      <c r="G74" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H74" s="35">
+      <c r="H74" s="11">
         <v>1</v>
       </c>
-      <c r="I74" s="32">
+      <c r="I74" s="8">
         <v>1</v>
       </c>
-      <c r="J74" s="22" t="s">
+      <c r="J74" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="K74" s="33" t="s">
+      <c r="K74" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L74" s="22" t="s">
+      <c r="L74" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="M74" s="22" t="s">
+      <c r="M74" s="5" t="s">
         <v>183</v>
       </c>
       <c r="N74" s="1"/>
@@ -3957,43 +3957,43 @@
       <c r="R74" s="1"/>
     </row>
     <row r="75" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A75" s="21">
+      <c r="A75" s="4">
         <v>26</v>
       </c>
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D75" s="28" t="s">
+      <c r="D75" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E75" s="35" t="s">
+      <c r="E75" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F75" s="35" t="s">
+      <c r="F75" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G75" s="35" t="s">
+      <c r="G75" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H75" s="35">
+      <c r="H75" s="11">
         <v>1</v>
       </c>
-      <c r="I75" s="21">
+      <c r="I75" s="4">
         <v>1</v>
       </c>
-      <c r="J75" s="22" t="s">
+      <c r="J75" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K75" s="22" t="s">
+      <c r="K75" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L75" s="22" t="s">
+      <c r="L75" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M75" s="22" t="s">
+      <c r="M75" s="5" t="s">
         <v>148</v>
       </c>
       <c r="N75" s="1"/>
@@ -4003,43 +4003,43 @@
       <c r="R75" s="1"/>
     </row>
     <row r="76" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="21">
+      <c r="A76" s="4">
         <v>27</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D76" s="28" t="s">
+      <c r="D76" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E76" s="35" t="s">
+      <c r="E76" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F76" s="35" t="s">
+      <c r="F76" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G76" s="35" t="s">
+      <c r="G76" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H76" s="35">
+      <c r="H76" s="11">
         <v>1</v>
       </c>
-      <c r="I76" s="21">
+      <c r="I76" s="4">
         <v>1</v>
       </c>
-      <c r="J76" s="22" t="s">
+      <c r="J76" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K76" s="22" t="s">
+      <c r="K76" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L76" s="22" t="s">
+      <c r="L76" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M76" s="22" t="s">
+      <c r="M76" s="5" t="s">
         <v>150</v>
       </c>
       <c r="N76" s="1"/>
@@ -4049,43 +4049,43 @@
       <c r="R76" s="1"/>
     </row>
     <row r="77" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A77" s="23">
+      <c r="A77" s="39">
         <v>28</v>
       </c>
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C77" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D77" s="25" t="s">
+      <c r="D77" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E77" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F77" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G77" s="30" t="s">
+      <c r="G77" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="H77" s="30">
+      <c r="H77" s="38">
         <v>1</v>
       </c>
-      <c r="I77" s="21">
+      <c r="I77" s="4">
         <v>1</v>
       </c>
-      <c r="J77" s="22" t="s">
+      <c r="J77" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K77" s="22" t="s">
+      <c r="K77" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L77" s="22" t="s">
+      <c r="L77" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="M77" s="22" t="s">
+      <c r="M77" s="5" t="s">
         <v>111</v>
       </c>
       <c r="N77" s="1"/>
@@ -4095,27 +4095,27 @@
       <c r="R77" s="1"/>
     </row>
     <row r="78" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="21">
+      <c r="A78" s="39"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="4">
         <v>2</v>
       </c>
-      <c r="J78" s="22" t="s">
+      <c r="J78" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="K78" s="22" t="s">
+      <c r="K78" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L78" s="22" t="s">
+      <c r="L78" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="M78" s="22" t="s">
+      <c r="M78" s="5" t="s">
         <v>177</v>
       </c>
       <c r="N78" s="1"/>
@@ -4125,43 +4125,43 @@
       <c r="R78" s="1"/>
     </row>
     <row r="79" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A79" s="23">
+      <c r="A79" s="39">
         <v>29</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="C79" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D79" s="31" t="s">
+      <c r="D79" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="30" t="s">
+      <c r="E79" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="F79" s="30" t="s">
+      <c r="F79" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G79" s="25" t="s">
+      <c r="G79" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H79" s="30">
+      <c r="H79" s="38">
         <v>1</v>
       </c>
-      <c r="I79" s="32">
+      <c r="I79" s="8">
         <v>1</v>
       </c>
-      <c r="J79" s="22" t="s">
+      <c r="J79" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K79" s="33" t="s">
+      <c r="K79" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L79" s="22" t="s">
+      <c r="L79" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="M79" s="22" t="s">
+      <c r="M79" s="5" t="s">
         <v>179</v>
       </c>
       <c r="N79" s="1"/>
@@ -4171,27 +4171,27 @@
       <c r="R79" s="1"/>
     </row>
     <row r="80" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="32">
+      <c r="A80" s="39"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="8">
         <v>2</v>
       </c>
-      <c r="J80" s="22" t="s">
+      <c r="J80" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="K80" s="33" t="s">
+      <c r="K80" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L80" s="22" t="s">
+      <c r="L80" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="M80" s="34" t="s">
+      <c r="M80" s="10" t="s">
         <v>157</v>
       </c>
       <c r="N80" s="1"/>
@@ -4201,27 +4201,27 @@
       <c r="R80" s="1"/>
     </row>
     <row r="81" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="32">
+      <c r="A81" s="39"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="8">
         <v>3</v>
       </c>
-      <c r="J81" s="22" t="s">
+      <c r="J81" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K81" s="33" t="s">
+      <c r="K81" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L81" s="22" t="s">
+      <c r="L81" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="M81" s="34" t="s">
+      <c r="M81" s="10" t="s">
         <v>160</v>
       </c>
       <c r="N81" s="1"/>
@@ -4231,43 +4231,43 @@
       <c r="R81" s="1"/>
     </row>
     <row r="82" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A82" s="23">
+      <c r="A82" s="39">
         <v>30</v>
       </c>
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D82" s="31" t="s">
+      <c r="D82" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="30" t="s">
+      <c r="E82" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="F82" s="30" t="s">
+      <c r="F82" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G82" s="25" t="s">
+      <c r="G82" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H82" s="30">
+      <c r="H82" s="38">
         <v>1</v>
       </c>
-      <c r="I82" s="32">
+      <c r="I82" s="8">
         <v>1</v>
       </c>
-      <c r="J82" s="22" t="s">
+      <c r="J82" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K82" s="33" t="s">
+      <c r="K82" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L82" s="22" t="s">
+      <c r="L82" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="M82" s="22" t="s">
+      <c r="M82" s="5" t="s">
         <v>179</v>
       </c>
       <c r="N82" s="1"/>
@@ -4277,27 +4277,27 @@
       <c r="R82" s="1"/>
     </row>
     <row r="83" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="32">
+      <c r="A83" s="39"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="8">
         <v>2</v>
       </c>
-      <c r="J83" s="22" t="s">
+      <c r="J83" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="K83" s="33" t="s">
+      <c r="K83" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L83" s="22" t="s">
+      <c r="L83" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="M83" s="34" t="s">
+      <c r="M83" s="10" t="s">
         <v>157</v>
       </c>
       <c r="N83" s="1"/>
@@ -4307,27 +4307,27 @@
       <c r="R83" s="1"/>
     </row>
     <row r="84" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="32">
+      <c r="A84" s="39"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="8">
         <v>3</v>
       </c>
-      <c r="J84" s="22" t="s">
+      <c r="J84" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K84" s="33" t="s">
+      <c r="K84" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L84" s="22" t="s">
+      <c r="L84" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="M84" s="34" t="s">
+      <c r="M84" s="10" t="s">
         <v>162</v>
       </c>
       <c r="N84" s="1"/>
@@ -4347,113 +4347,90 @@
     </row>
   </sheetData>
   <mergeCells count="215">
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="A71:M71"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="H79:H81"/>
-    <mergeCell ref="G79:G81"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="H29:H34"/>
-    <mergeCell ref="G29:G34"/>
-    <mergeCell ref="F29:F34"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H26"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="F21:F26"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="H54:H59"/>
+    <mergeCell ref="G54:G59"/>
+    <mergeCell ref="F54:F59"/>
+    <mergeCell ref="E54:E59"/>
+    <mergeCell ref="D54:D59"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
     <mergeCell ref="A82:A84"/>
     <mergeCell ref="B82:B84"/>
     <mergeCell ref="C82:C84"/>
@@ -4478,90 +4455,113 @@
     <mergeCell ref="G41:G42"/>
     <mergeCell ref="H41:H42"/>
     <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="H54:H59"/>
-    <mergeCell ref="G54:G59"/>
-    <mergeCell ref="F54:F59"/>
-    <mergeCell ref="E54:E59"/>
-    <mergeCell ref="D54:D59"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H26"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="H79:H81"/>
+    <mergeCell ref="G79:G81"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="A71:M71"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="F29:F34"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="1.0208333333333333" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Documentación/Entregable - historias de Usuario.xlsx
+++ b/Documentación/Entregable - historias de Usuario.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="212">
   <si>
     <t>ROL</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>Necesito acceder a la aplicación</t>
-  </si>
-  <si>
-    <t>Quiero poder instalar la aplicación en mi smartphone</t>
   </si>
   <si>
     <t>Para poder acceder a las funcionalidades de la aplicación</t>
@@ -913,6 +910,12 @@
       </rPr>
       <t>Alta</t>
     </r>
+  </si>
+  <si>
+    <t>PLATAFORMA WEB</t>
+  </si>
+  <si>
+    <t>Quiero instalar la aplicación en mi smartphone</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1013,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1085,12 +1088,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1126,15 +1166,90 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1150,79 +1265,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1506,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R85"/>
+  <dimension ref="A2:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:C28"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A82" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,203 +1581,203 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="23" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
+      <c r="M2" s="30"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="M2" s="28"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="38"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="M6" s="35"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="M7" s="35"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="M8" s="35"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="M9" s="35"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="45"/>
+      <c r="L10" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="36"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="M6" s="33"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="M7" s="33"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="M8" s="33"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="M9" s="33"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="M10" s="15"/>
+      <c r="M10" s="24"/>
     </row>
     <row r="13" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="44" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>0</v>
@@ -1734,22 +1786,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E14" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="H14" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="I14" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>2</v>
@@ -1764,72 +1816,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="49"/>
+    </row>
+    <row r="16" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
         <v>1</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="14">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="37">
-        <v>5</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="4">
-        <v>2</v>
-      </c>
-      <c r="J16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>67</v>
@@ -1840,33 +1879,17 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
+    <row r="17" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="4">
         <v>2</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="37">
-        <v>5</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>62</v>
@@ -1875,10 +1898,10 @@
         <v>65</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1886,26 +1909,42 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+    <row r="18" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>2</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="14">
+        <v>5</v>
+      </c>
       <c r="I18" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>67</v>
@@ -1916,33 +1955,17 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
-        <v>3</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="37">
-        <v>5</v>
-      </c>
+    <row r="19" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
       <c r="I19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>62</v>
@@ -1951,10 +1974,10 @@
         <v>65</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1962,26 +1985,42 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
+    <row r="20" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>3</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="14">
+        <v>5</v>
+      </c>
       <c r="I20" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>67</v>
@@ -1992,45 +2031,29 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
-        <v>4</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="37">
-        <v>5</v>
-      </c>
+    <row r="21" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>65</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2038,29 +2061,45 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
+    <row r="22" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>4</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="14">
+        <v>5</v>
+      </c>
       <c r="I22" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2068,29 +2107,29 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
+    <row r="23" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
       <c r="I23" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -2098,29 +2137,29 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
+    <row r="24" spans="1:18" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2128,29 +2167,29 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
+    <row r="25" spans="1:18" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
       <c r="I25" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -2158,29 +2197,29 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
+    <row r="26" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -2188,45 +2227,29 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
-        <v>5</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="37">
-        <v>5</v>
-      </c>
+    <row r="27" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -2234,29 +2257,45 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
+    <row r="28" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>5</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="14">
+        <v>5</v>
+      </c>
       <c r="I28" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L28" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="M28" s="5" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -2264,45 +2303,29 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39">
-        <v>6</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="H29" s="37">
-        <v>5</v>
-      </c>
+    <row r="29" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -2310,29 +2333,45 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
+    <row r="30" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>6</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="14">
+        <v>5</v>
+      </c>
       <c r="I30" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -2340,29 +2379,29 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
+    <row r="31" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
       <c r="I31" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -2371,28 +2410,28 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -2400,29 +2439,29 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
+    <row r="33" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
       <c r="I33" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -2430,29 +2469,29 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
+    <row r="34" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
       <c r="I34" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2460,45 +2499,29 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39">
-        <v>7</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="37">
-        <v>5</v>
-      </c>
+    <row r="35" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
       <c r="I35" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -2506,29 +2529,45 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
+    <row r="36" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>7</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="14">
+        <v>5</v>
+      </c>
       <c r="I36" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>106</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -2536,45 +2575,29 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39">
-        <v>8</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H37" s="37">
-        <v>5</v>
-      </c>
+    <row r="37" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
       <c r="I37" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -2582,29 +2605,45 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
+    <row r="38" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>8</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="14">
+        <v>5</v>
+      </c>
       <c r="I38" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>106</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -2612,45 +2651,29 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39">
-        <v>9</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H39" s="37">
-        <v>3</v>
-      </c>
+    <row r="39" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
       <c r="I39" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -2658,29 +2681,45 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
+    <row r="40" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>9</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" s="14">
+        <v>3</v>
+      </c>
       <c r="I40" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L40" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="K40" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L40" s="5" t="s">
+      <c r="M40" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -2688,45 +2727,29 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="39">
-        <v>10</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="37" t="s">
+    <row r="41" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="4">
+        <v>2</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M41" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="H41" s="37">
-        <v>5</v>
-      </c>
-      <c r="I41" s="4">
-        <v>1</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -2734,29 +2757,45 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
+    <row r="42" spans="1:18" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>10</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="14">
+        <v>5</v>
+      </c>
       <c r="I42" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="L42" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M42" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -2764,45 +2803,29 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39">
-        <v>11</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H43" s="37">
-        <v>5</v>
-      </c>
+    <row r="43" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
       <c r="I43" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -2810,26 +2833,42 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
+    <row r="44" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <v>11</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" s="14">
+        <v>5</v>
+      </c>
       <c r="I44" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L44" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>125</v>
@@ -2840,45 +2879,29 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39">
-        <v>12</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="37">
-        <v>3</v>
-      </c>
+    <row r="45" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
       <c r="I45" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -2886,29 +2909,45 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
+    <row r="46" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
+        <v>12</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" s="14">
+        <v>3</v>
+      </c>
       <c r="I46" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L46" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K46" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L46" s="5" t="s">
+      <c r="M46" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="M46" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -2916,42 +2955,26 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="39">
-        <v>13</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H47" s="37">
-        <v>3</v>
-      </c>
+    <row r="47" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
       <c r="I47" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M47" s="5" t="s">
         <v>130</v>
@@ -2963,28 +2986,44 @@
       <c r="R47" s="1"/>
     </row>
     <row r="48" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
+      <c r="A48" s="15">
+        <v>13</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="14">
+        <v>3</v>
+      </c>
       <c r="I48" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -2992,45 +3031,29 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="49" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="39">
-        <v>14</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="G49" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H49" s="37">
-        <v>3</v>
-      </c>
+    <row r="49" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
       <c r="I49" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -3038,29 +3061,45 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
+    <row r="50" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="15">
+        <v>14</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H50" s="14">
+        <v>3</v>
+      </c>
       <c r="I50" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L50" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="K50" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L50" s="5" t="s">
+      <c r="M50" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="M50" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -3068,45 +3107,29 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
     </row>
-    <row r="51" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="39">
-        <v>15</v>
-      </c>
-      <c r="B51" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="F51" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="G51" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H51" s="37">
-        <v>3</v>
-      </c>
+    <row r="51" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
       <c r="I51" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -3114,29 +3137,45 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
     </row>
-    <row r="52" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
+    <row r="52" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
+        <v>15</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="14">
+        <v>3</v>
+      </c>
       <c r="I52" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L52" s="5" t="s">
         <v>152</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -3144,45 +3183,29 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
     </row>
-    <row r="53" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>16</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H53" s="7">
-        <v>5</v>
-      </c>
+    <row r="53" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
       <c r="I53" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -3190,45 +3213,45 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
     </row>
-    <row r="54" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="39">
-        <v>17</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="38" t="s">
+    <row r="54" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>16</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F54" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G54" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="H54" s="38">
-        <v>3</v>
+      <c r="F54" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54" s="7">
+        <v>5</v>
       </c>
       <c r="I54" s="4">
         <v>1</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -3236,29 +3259,45 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="55" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
+    <row r="55" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
+        <v>17</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55" s="16">
+        <v>3</v>
+      </c>
       <c r="I55" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -3266,29 +3305,29 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
     </row>
-    <row r="56" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
+    <row r="56" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
       <c r="I56" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -3296,29 +3335,29 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
     </row>
-    <row r="57" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
+    <row r="57" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
       <c r="I57" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -3326,29 +3365,29 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
     </row>
-    <row r="58" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
+    <row r="58" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
       <c r="I58" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -3356,29 +3395,29 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
     </row>
-    <row r="59" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
+    <row r="59" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
       <c r="I59" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -3386,45 +3425,29 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
     </row>
-    <row r="60" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="39">
-        <v>18</v>
-      </c>
-      <c r="B60" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E60" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="F60" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G60" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H60" s="38">
-        <v>1</v>
-      </c>
-      <c r="I60" s="8">
-        <v>1</v>
+    <row r="60" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="4">
+        <v>6</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -3432,29 +3455,45 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
     </row>
-    <row r="61" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="38"/>
+    <row r="61" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
+        <v>18</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H61" s="16">
+        <v>1</v>
+      </c>
       <c r="I61" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L61" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="K61" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L61" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="M61" s="10" t="s">
-        <v>157</v>
+      <c r="M61" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -3462,29 +3501,29 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
     </row>
-    <row r="62" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="38"/>
+    <row r="62" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="16"/>
       <c r="I62" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -3492,45 +3531,29 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
     </row>
-    <row r="63" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="39">
-        <v>19</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C63" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D63" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E63" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="F63" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G63" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H63" s="38">
-        <v>1</v>
-      </c>
+    <row r="63" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="16"/>
       <c r="I63" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="M63" s="5" t="s">
-        <v>179</v>
+        <v>158</v>
+      </c>
+      <c r="M63" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -3538,29 +3561,45 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
     </row>
-    <row r="64" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="38"/>
+    <row r="64" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="15">
+        <v>19</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H64" s="16">
+        <v>1</v>
+      </c>
       <c r="I64" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="M64" s="10" t="s">
-        <v>157</v>
+        <v>160</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -3568,29 +3607,29 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
     </row>
-    <row r="65" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="38"/>
+    <row r="65" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="16"/>
       <c r="I65" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M65" s="10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -3598,45 +3637,29 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
     </row>
-    <row r="66" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="39">
-        <v>20</v>
-      </c>
-      <c r="B66" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D66" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="F66" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G66" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="H66" s="38">
+    <row r="66" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="8">
         <v>3</v>
       </c>
-      <c r="I66" s="4">
-        <v>1</v>
-      </c>
       <c r="J66" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="K66" s="5" t="s">
-        <v>84</v>
+        <v>157</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="M66" s="5" t="s">
-        <v>130</v>
+        <v>158</v>
+      </c>
+      <c r="M66" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
@@ -3645,28 +3668,44 @@
       <c r="R66" s="1"/>
     </row>
     <row r="67" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
+      <c r="A67" s="15">
+        <v>20</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H67" s="16">
+        <v>3</v>
+      </c>
       <c r="I67" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -3674,45 +3713,29 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
     </row>
-    <row r="68" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="39">
-        <v>21</v>
-      </c>
-      <c r="B68" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D68" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E68" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F68" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="G68" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="H68" s="38">
-        <v>5</v>
-      </c>
+    <row r="68" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
       <c r="I68" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -3720,26 +3743,42 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
     </row>
-    <row r="69" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
+    <row r="69" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="15">
+        <v>21</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H69" s="16">
+        <v>5</v>
+      </c>
       <c r="I69" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M69" s="5" t="s">
         <v>144</v>
@@ -3750,45 +3789,29 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
     </row>
-    <row r="70" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
-        <v>22</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H70" s="11">
-        <v>5</v>
-      </c>
+    <row r="70" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
       <c r="I70" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -3796,68 +3819,68 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
     </row>
-    <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="32"/>
-      <c r="L71" s="32"/>
-      <c r="M71" s="32"/>
+    <row r="71" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>22</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H71" s="11">
+        <v>5</v>
+      </c>
+      <c r="I71" s="4">
+        <v>1</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
     </row>
-    <row r="72" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <v>23</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H72" s="11">
-        <v>1</v>
-      </c>
-      <c r="I72" s="8">
-        <v>1</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="K72" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L72" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="M72" s="5" t="s">
-        <v>183</v>
-      </c>
+    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="34"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
@@ -3866,25 +3889,25 @@
     </row>
     <row r="73" spans="1:18" ht="51" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C73" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="E73" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F73" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F73" s="11" t="s">
-        <v>61</v>
-      </c>
       <c r="G73" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H73" s="11">
         <v>1</v>
@@ -3893,16 +3916,16 @@
         <v>1</v>
       </c>
       <c r="J73" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L73" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="K73" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L73" s="5" t="s">
+      <c r="M73" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="M73" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -3912,25 +3935,25 @@
     </row>
     <row r="74" spans="1:18" ht="51" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="E74" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F74" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F74" s="11" t="s">
-        <v>61</v>
-      </c>
       <c r="G74" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H74" s="11">
         <v>1</v>
@@ -3939,16 +3962,16 @@
         <v>1</v>
       </c>
       <c r="J74" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L74" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="K74" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L74" s="5" t="s">
+      <c r="M74" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="M74" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
@@ -3958,43 +3981,43 @@
     </row>
     <row r="75" spans="1:18" ht="51" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>211</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F75" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H75" s="11">
         <v>1</v>
       </c>
-      <c r="I75" s="4">
+      <c r="I75" s="8">
         <v>1</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="K75" s="5" t="s">
-        <v>84</v>
+        <v>180</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
@@ -4002,27 +4025,27 @@
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
     </row>
-    <row r="76" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="51" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H76" s="11">
         <v>1</v>
@@ -4031,16 +4054,16 @@
         <v>1</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
@@ -4048,45 +4071,45 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
     </row>
-    <row r="77" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A77" s="39">
-        <v>28</v>
-      </c>
-      <c r="B77" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D77" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E77" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="F77" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="G77" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="H77" s="38">
+    <row r="77" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>27</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H77" s="11">
         <v>1</v>
       </c>
       <c r="I77" s="4">
         <v>1</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="M77" s="5" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
@@ -4095,28 +4118,44 @@
       <c r="R77" s="1"/>
     </row>
     <row r="78" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
+      <c r="A78" s="15">
+        <v>28</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H78" s="16">
+        <v>1</v>
+      </c>
       <c r="I78" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" s="5" t="s">
         <v>106</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M78" s="5" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -4125,44 +4164,28 @@
       <c r="R78" s="1"/>
     </row>
     <row r="79" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A79" s="39">
-        <v>29</v>
-      </c>
-      <c r="B79" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D79" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="F79" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G79" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H79" s="38">
-        <v>1</v>
-      </c>
-      <c r="I79" s="8">
-        <v>1</v>
+      <c r="A79" s="15"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="4">
+        <v>2</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K79" s="9" t="s">
-        <v>84</v>
+        <v>105</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -4171,28 +4194,44 @@
       <c r="R79" s="1"/>
     </row>
     <row r="80" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A80" s="39"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="38"/>
+      <c r="A80" s="15">
+        <v>29</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H80" s="16">
+        <v>1</v>
+      </c>
       <c r="I80" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L80" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="K80" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L80" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="M80" s="10" t="s">
-        <v>157</v>
+      <c r="M80" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
@@ -4200,29 +4239,29 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
     </row>
-    <row r="81" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="39"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="38"/>
+    <row r="81" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="16"/>
       <c r="I81" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
@@ -4230,45 +4269,29 @@
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
     </row>
-    <row r="82" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A82" s="39">
-        <v>30</v>
-      </c>
-      <c r="B82" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C82" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D82" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="F82" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G82" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H82" s="38">
-        <v>1</v>
-      </c>
+    <row r="82" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="15"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="16"/>
       <c r="I82" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="M82" s="5" t="s">
-        <v>179</v>
+        <v>158</v>
+      </c>
+      <c r="M82" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
@@ -4277,28 +4300,44 @@
       <c r="R82" s="1"/>
     </row>
     <row r="83" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A83" s="39"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="38"/>
+      <c r="A83" s="15">
+        <v>30</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H83" s="16">
+        <v>1</v>
+      </c>
       <c r="I83" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="M83" s="10" t="s">
-        <v>157</v>
+        <v>160</v>
+      </c>
+      <c r="M83" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
@@ -4306,29 +4345,29 @@
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
     </row>
-    <row r="84" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="39"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="38"/>
+    <row r="84" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="A84" s="15"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="16"/>
       <c r="I84" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M84" s="10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
@@ -4336,199 +4375,57 @@
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
+    <row r="85" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="15"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="8">
+        <v>3</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="M85" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="215">
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="H54:H59"/>
-    <mergeCell ref="G54:G59"/>
-    <mergeCell ref="F54:F59"/>
-    <mergeCell ref="E54:E59"/>
-    <mergeCell ref="D54:D59"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="F21:F26"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H26"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="H79:H81"/>
-    <mergeCell ref="G79:G81"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B77:B78"/>
+  <mergeCells count="216">
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:I2"/>
@@ -4536,7 +4433,7 @@
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="D3:M3"/>
-    <mergeCell ref="A71:M71"/>
+    <mergeCell ref="A72:M72"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
@@ -4548,20 +4445,193 @@
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="D7:I7"/>
-    <mergeCell ref="H29:H34"/>
-    <mergeCell ref="G29:G34"/>
-    <mergeCell ref="F29:F34"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="G80:G82"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="H55:H60"/>
+    <mergeCell ref="G55:G60"/>
+    <mergeCell ref="F55:F60"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="D55:D60"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="F61:F63"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="1.0208333333333333" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
